--- a/TestPerformance.xlsx
+++ b/TestPerformance.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foschif\Desktop\Progetto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4ED36D-E2CD-41FD-8AC3-DD5914EFEA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84146D5A-6134-4C1E-B719-FA7476106808}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -830,8 +824,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1007,7 +1001,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1201,41 +1195,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB2EF86-C847-4FB7-80D7-B2C3F201A0E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C69" activeCellId="1" sqref="F70 C69:L69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="26.25">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -1353,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -1412,15 +1406,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>250</v>
       </c>
@@ -1454,7 +1448,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1471,15 +1465,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -1597,7 +1591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -1656,15 +1650,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>250</v>
       </c>
@@ -1782,7 +1776,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -1841,17 +1835,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="18.75">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -1933,7 +1927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>251</v>
       </c>
@@ -1974,17 +1968,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +1998,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -2024,7 +2018,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -2044,12 +2038,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2060,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>250</v>
       </c>
@@ -2083,7 +2077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>251</v>
       </c>
@@ -2100,12 +2094,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="18.75">
       <c r="A54" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -2193,7 +2187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2237,27 +2231,27 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="26.25">
       <c r="A63" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="18.75">
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="18.75">
       <c r="A67" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="O68" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2290,7 @@
         <v>3.9259999999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>250</v>
       </c>
@@ -2336,7 +2330,7 @@
         <v>6.1569999999999983</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>251</v>
       </c>
@@ -2376,17 +2370,17 @@
         <v>7.5389999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="O74" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2420,7 @@
         <v>3.9629999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>250</v>
       </c>
@@ -2466,7 +2460,7 @@
         <v>6.6840000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>251</v>
       </c>
@@ -2506,17 +2500,17 @@
         <v>8.3669999999999991</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="O80" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2556,7 +2550,7 @@
         <v>4.6939999999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>250</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>6.9409999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="C83">
         <v>8.35</v>
       </c>
@@ -2633,17 +2627,17 @@
         <v>8.4760000000000009</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="O86" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +2676,7 @@
         <v>3.7870000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>250</v>
       </c>
@@ -2721,7 +2715,7 @@
         <v>6.7680000000000007</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>251</v>
       </c>
@@ -2761,17 +2755,17 @@
         <v>8.7889999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="18.75">
       <c r="A91" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="O92" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2804,7 @@
         <v>3.5770000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -2849,7 +2843,7 @@
         <v>5.7349999999999994</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>251</v>
       </c>
@@ -2888,22 +2882,22 @@
         <v>7.0830000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="18.75">
       <c r="A97" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="O100" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2936,7 @@
         <v>3.7399999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -2981,7 +2975,7 @@
         <v>6.3689999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -3020,17 +3014,17 @@
         <v>7.8960000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="O106" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3063,7 @@
         <v>4.0810000000000013</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>250</v>
       </c>
@@ -3108,7 +3102,7 @@
         <v>6.9760000000000009</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>251</v>
       </c>
@@ -3147,17 +3141,17 @@
         <v>8.6170000000000009</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="O112" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +3190,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -3235,7 +3229,7 @@
         <v>6.6440000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>251</v>
       </c>
@@ -3274,17 +3268,17 @@
         <v>8.3369999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="O118" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3317,7 @@
         <v>4.2530000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>6.7620000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>251</v>
       </c>
